--- a/Doc/Répartition Heures (Conflit lié au codage Unicode).xlsx
+++ b/Doc/Répartition Heures (Conflit lié au codage Unicode).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lionelburgbacher/Dropbox/HEIG-VD/Bachelor 02/Semestre IV/PRO/git_hub/PROHEIG18/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathieu\Documents\HEIG-VD\Heig 2e\Semestre 2\PRO\GitProject\PROHEIG18\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8938E05E-CF82-4448-A291-CE4911B7EBF4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560"/>
+    <workbookView xWindow="0" yWindow="444" windowWidth="33600" windowHeight="20556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Utilisateur de Microsoft Office</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="0">
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="0">
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -276,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -315,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0">
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -434,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -447,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -460,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -473,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J7" authorId="0">
+    <comment ref="J7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K7" authorId="0">
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -512,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="N7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -538,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -551,20 +552,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Recherche d'idée et collecte d'informations</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Recherche d'idées et collecte d'informations</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -590,20 +591,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Début des partages de fichier</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Début des partages de fichiers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -617,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0">
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -630,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -643,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J8" authorId="0">
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -656,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0">
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -669,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -682,20 +683,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Màj de la documentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N8" authorId="0">
+    <comment ref="M8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Mise à jour de la documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -708,7 +709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -721,7 +722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -735,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -750,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -764,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -778,21 +779,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>- Integration du système de partage de fichier au framework p2p.
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>- Intégration du système de partage de fichiers au framework p2p.
 - Tests</t>
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -805,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -833,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="0">
+    <comment ref="K9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -847,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -861,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M9" authorId="0">
+    <comment ref="M9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -876,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -889,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0">
+    <comment ref="O9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -902,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -915,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="0">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -930,7 +931,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -943,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -957,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
       <text>
         <r>
           <rPr>
@@ -972,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -986,7 +987,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
       <text>
         <r>
           <rPr>
@@ -999,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0">
+    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
       <text>
         <r>
           <rPr>
@@ -1012,7 +1013,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K10" authorId="0">
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="0">
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M10" authorId="0">
+    <comment ref="M10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -1053,7 +1054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="0">
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -1066,7 +1067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0">
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1357,7 +1358,7 @@
         <xdr:cNvPr id="1103" name="Zone de texte 79" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F132C63D-F765-4ACD-B513-CC2A10E52DEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1407,7 @@
         <xdr:cNvPr id="2" name="Forme automatique 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CA1A0F-6B7A-4520-ADF6-6D7DE8947F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 79"/>
+        <xdr:cNvPr id="3" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1513,7 +1520,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 79"/>
+        <xdr:cNvPr id="4" name="AutoShape 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1853,21 +1866,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="245" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:R16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="17" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="17" width="4.44140625" customWidth="1"/>
     <col min="18" max="18" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1888,7 +1901,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +1924,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1932,7 +1945,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -1987,7 +2000,7 @@
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2041,7 +2054,7 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2110,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2166,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -2209,7 +2222,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2278,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2334,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -2394,7 +2407,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2415,7 +2428,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2440,7 +2453,7 @@
       <c r="R13" s="15"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2465,7 +2478,7 @@
       <c r="R14" s="15"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="14" t="s">
         <v>28</v>
@@ -2488,7 +2501,7 @@
       <c r="R15" s="15"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="14" t="s">
         <v>29</v>
@@ -2511,7 +2524,7 @@
       <c r="R16" s="15"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
@@ -2532,7 +2545,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2557,7 +2570,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2582,7 +2595,7 @@
       <c r="R19" s="15"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="14" t="s">
         <v>32</v>
@@ -2605,7 +2618,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="14" t="s">
         <v>33</v>
@@ -2628,7 +2641,7 @@
       <c r="R21" s="15"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
